--- a/Pins & Parts.xlsx
+++ b/Pins & Parts.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Cloud\Diplomarbeit\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Cloud\Diplomarbeit\3D-Drone-Tracking-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B371568-FE79-468F-956D-3ADB54FDB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11DDC6-9508-468A-8D1B-405134F81B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinouts" sheetId="1" r:id="rId1"/>
     <sheet name="Pins" sheetId="3" r:id="rId2"/>
-    <sheet name="Parts List" sheetId="5" r:id="rId3"/>
+    <sheet name="PCB Parts List" sheetId="5" r:id="rId3"/>
+    <sheet name="Other Parts" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="277">
   <si>
     <t>https://docs.arduino.cc/resources/pinouts/A000067-full-pinout.pdf</t>
   </si>
@@ -705,6 +706,222 @@
   </si>
   <si>
     <t>VAT</t>
+  </si>
+  <si>
+    <t>Datasheet</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/gpn/ULN2003A</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2267/DFR0010_Web.pdf</t>
+  </si>
+  <si>
+    <t>http://www.chipquik.com/datasheets/HDR100IMP40F-G-RA-TH.pdf</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/199582/ics-3xx-t-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/eXH.pdf</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePA-F.pdf</t>
+  </si>
+  <si>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePHD.pdf</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/195860/usb-ap-s-ra-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/6025/302-S.pdf</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/1256/Ribbon_Cable_Assembly_Length.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/61300821821.pdf</t>
+  </si>
+  <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/201605/ph1-xx-ua-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://drawings-pdf.s3.amazonaws.com/11134.pdf</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2184/3111_Web.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/150060RS55040.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/150060VS55040.pdf</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/150060BS55040.pdf</t>
+  </si>
+  <si>
+    <t>https://www.koaspeer.com/pdfs/RK73H.pdf</t>
+  </si>
+  <si>
+    <t>https://www.molex.com/en-us/products/part-detail/470531000?display=pdf</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/609/CL05B104KP5NNNC_Spec.pdf</t>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/products/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Stations</t>
+  </si>
+  <si>
+    <t>Total need</t>
+  </si>
+  <si>
+    <t>Total have</t>
+  </si>
+  <si>
+    <t>https://www.armsom.org/product-page/sige7</t>
+  </si>
+  <si>
+    <t>https://docs.armsom.org/armsom-sige7</t>
+  </si>
+  <si>
+    <t>https://www.armsom.org/product-page/camera-module-1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1A4pPL4b7qqqc8NED2NxWfeoRC7hlyvSu/view</t>
+  </si>
+  <si>
+    <t>ArmSom</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Camera Module 1</t>
+  </si>
+  <si>
+    <t>Sige Active Cooling Kit</t>
+  </si>
+  <si>
+    <t>https://www.armsom.org/product-page/sige-active-cooling-kit</t>
+  </si>
+  <si>
+    <t>https://docs.armsom.org/sige-active-cooling-kit</t>
+  </si>
+  <si>
+    <t>Sige7 Basic</t>
+  </si>
+  <si>
+    <t>Noctua</t>
+  </si>
+  <si>
+    <t>NF-A8 5V PWM</t>
+  </si>
+  <si>
+    <t>https://noctua.at/de/nf-a8-5v-pwm</t>
+  </si>
+  <si>
+    <t>https://noctua.at/pub/media/blfa_files/infosheet/noctua_nf_a8_5v_pwm_datasheet_en_web_3.pdf</t>
+  </si>
+  <si>
+    <t>PowerAdd</t>
+  </si>
+  <si>
+    <t>https://www.ipoweradd.com/products/power-dd-pro-portable-charger-20000mah</t>
+  </si>
+  <si>
+    <t>PD100</t>
+  </si>
+  <si>
+    <t>USB-A-A for PCB</t>
+  </si>
+  <si>
+    <t>USB-C-C for ArmSom</t>
+  </si>
+  <si>
+    <t>MicroSD Cards for ArmSom</t>
+  </si>
+  <si>
+    <t>USB-C-Micro for Com</t>
+  </si>
+  <si>
+    <t>Com-Module</t>
+  </si>
+  <si>
+    <t>End-Switches</t>
+  </si>
+  <si>
+    <t>Stepper</t>
+  </si>
+  <si>
+    <t>Turntable</t>
+  </si>
+  <si>
+    <t>Ball bearings</t>
+  </si>
+  <si>
+    <t>AZDelivery</t>
+  </si>
+  <si>
+    <t>GY-521 Gyro</t>
+  </si>
+  <si>
+    <t>GY-271 Compass</t>
+  </si>
+  <si>
+    <t>Prototypes: 2; Pillars: 6x4; Fan: 4</t>
+  </si>
+  <si>
+    <t>Insert M3x4</t>
+  </si>
+  <si>
+    <t>Bottom: 4; Walls; 4x4</t>
+  </si>
+  <si>
+    <t>Start-Button: 1; PCB: 3</t>
+  </si>
+  <si>
+    <t>Start-Button: 1;</t>
+  </si>
+  <si>
+    <t>FAN: 4</t>
+  </si>
+  <si>
+    <t>CS M3x6-28</t>
+  </si>
+  <si>
+    <t>CS M3x8</t>
+  </si>
+  <si>
+    <t>CS M3x6</t>
+  </si>
+  <si>
+    <t>ArmSom: 1</t>
+  </si>
+  <si>
+    <t>LH M3x4-6</t>
+  </si>
+  <si>
+    <t>PCB: 3</t>
+  </si>
+  <si>
+    <t>CS M2.5x6</t>
+  </si>
+  <si>
+    <t>Insert M3x5,7</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -899,7 +1116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -944,6 +1161,7 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2141,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A668C54A-9D80-4005-8BD7-89DE5C6B7683}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,10 +2382,11 @@
     <col min="15" max="15" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.28515625" style="18" customWidth="1"/>
     <col min="17" max="17" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" customWidth="1"/>
+    <col min="18" max="18" width="37.42578125" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
@@ -2186,28 +2405,31 @@
       <c r="F1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="20"/>
       <c r="Q1" s="3" t="s">
         <v>101</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -2220,10 +2442,10 @@
       <c r="H2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="37"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="25" t="s">
         <v>87</v>
       </c>
@@ -2241,7 +2463,7 @@
       </c>
       <c r="P2" s="26"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -2287,10 +2509,13 @@
         <v>110</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2316,11 +2541,11 @@
         <v>1</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" ref="K4:K28" si="0">IF(G4*H4&gt;0, G4*H4, "")</f>
+        <f t="shared" ref="K4:K29" si="0">IF(G4*H4&gt;0, G4*H4, "")</f>
         <v>1.66</v>
       </c>
       <c r="L4" s="12">
-        <f t="shared" ref="L4:L28" si="1">IF(H4*3&gt;0, H4*3, "")</f>
+        <f t="shared" ref="L4:L29" si="1">IF(H4*3&gt;0, H4*3, "")</f>
         <v>6</v>
       </c>
       <c r="M4" s="12">
@@ -2341,11 +2566,14 @@
       <c r="Q4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -2377,11 +2605,14 @@
       <c r="Q5" t="s">
         <v>96</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2428,21 +2659,24 @@
         <v>10</v>
       </c>
       <c r="O6" s="16">
-        <f t="shared" ref="O6:O28" si="3">IF(L6="","",IF(G6="","",IF((L6+M6)*G6&gt;0,(L6+M6)*G6,"")))</f>
+        <f t="shared" ref="O6:O29" si="3">IF(L6="","",IF(G6="","",IF((L6+M6)*G6&gt;0,(L6+M6)*G6,"")))</f>
         <v>1.08</v>
       </c>
       <c r="P6" s="18" t="str">
-        <f t="shared" ref="P6:P28" si="4">IF(L6="","", IF((L6+M6)&lt;I6, "L", IF((L6+M6)&gt;=J6, IF(J6="","","H"), "")))</f>
+        <f t="shared" ref="P6:P29" si="4">IF(L6="","", IF((L6+M6)&lt;I6, "L", IF((L6+M6)&gt;=J6, IF(J6="","","H"), "")))</f>
         <v/>
       </c>
       <c r="Q6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -2499,11 +2733,14 @@
       <c r="Q7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -2560,11 +2797,14 @@
       <c r="Q8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2621,11 +2861,14 @@
       <c r="Q9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -2682,11 +2925,14 @@
       <c r="Q10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -2737,11 +2983,14 @@
       <c r="Q11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -2795,11 +3044,14 @@
       <c r="Q12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -2850,11 +3102,14 @@
       <c r="Q13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -2905,11 +3160,14 @@
       <c r="Q14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -2966,11 +3224,14 @@
       <c r="Q15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -3021,11 +3282,14 @@
       <c r="Q16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -3076,11 +3340,14 @@
       <c r="Q17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -3128,11 +3395,14 @@
       <c r="Q18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -3183,11 +3453,14 @@
       <c r="Q19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -3238,11 +3511,14 @@
       <c r="Q20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>184</v>
       </c>
@@ -3287,8 +3563,11 @@
       <c r="Q21" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R21" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -3337,11 +3616,14 @@
       <c r="Q22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="S22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -3392,11 +3674,14 @@
       <c r="Q23" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>169</v>
       </c>
@@ -3447,11 +3732,14 @@
       <c r="Q24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -3502,11 +3790,14 @@
       <c r="Q25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -3564,11 +3855,14 @@
       <c r="Q26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S26" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>187</v>
       </c>
@@ -3626,77 +3920,84 @@
       <c r="Q27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="R27" t="s">
+      <c r="R27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="31"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="17" t="str">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="31"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L28" s="13" t="str">
+      <c r="L29" s="13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="17" t="str">
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P28" s="32" t="str">
+      <c r="P29" s="32" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K29" s="27">
-        <f>SUM(K3:K28)</f>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K30" s="27">
+        <f>SUM(K3:K29)</f>
         <v>22.4239</v>
       </c>
-      <c r="O29" s="27">
-        <f>SUM(O3:O28)</f>
+      <c r="O30" s="27">
+        <f>SUM(O3:O29)</f>
         <v>89.871999999999986</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M30" s="12" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M31" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="O30" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M31" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="O31" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M32" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="O32" s="16">
-        <f>O29*0.2</f>
+      <c r="O33" s="16">
+        <f>O30*0.2</f>
         <v>17.974399999999999</v>
       </c>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O33" s="16">
-        <f>SUM(O29:O32)</f>
+    <row r="34" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="16">
+        <f>SUM(O30:O33)</f>
         <v>107.84639999999999</v>
       </c>
     </row>
@@ -3708,7 +4009,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q9" r:id="rId1" xr:uid="{E00F5CAF-58C0-4EF5-B4F3-536278AD1F26}"/>
-    <hyperlink ref="R3" r:id="rId2" xr:uid="{C370C119-5F61-48CD-BCBC-6C2A97E1AA20}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{C370C119-5F61-48CD-BCBC-6C2A97E1AA20}"/>
     <hyperlink ref="Q3" r:id="rId3" xr:uid="{FF06E437-9041-4049-947C-0BB1A1ACE54D}"/>
     <hyperlink ref="Q10" r:id="rId4" xr:uid="{BF9E9AE9-A4EC-49EE-A8E3-B8BCE88C0EC4}"/>
     <hyperlink ref="Q12" r:id="rId5" xr:uid="{92F14141-D84F-4DAE-B6E8-55B6B74A4E5C}"/>
@@ -3732,8 +4033,685 @@
     <hyperlink ref="Q14" r:id="rId23" xr:uid="{DCC15A6D-D765-4B77-8E7A-80C68022D53C}"/>
     <hyperlink ref="Q15" r:id="rId24" xr:uid="{3DD9906A-2CFD-4585-8C26-56FDEA2CCDBD}"/>
     <hyperlink ref="Q18" r:id="rId25" xr:uid="{978441A0-F987-4DF7-9B46-D5A8118215AE}"/>
+    <hyperlink ref="R5" r:id="rId26" xr:uid="{F6BD632C-114F-4CE8-A609-438F581C892D}"/>
+    <hyperlink ref="R3" r:id="rId27" xr:uid="{93468FBF-354A-4A41-89D4-C45F297A1CDA}"/>
+    <hyperlink ref="R4" r:id="rId28" xr:uid="{F1A9E2A1-3949-4309-8578-A86700991855}"/>
+    <hyperlink ref="R6" r:id="rId29" xr:uid="{FFAB68A4-BB25-4214-9CDA-5B4EED5A36A6}"/>
+    <hyperlink ref="R9" r:id="rId30" xr:uid="{8AFF2FEB-60CF-45DC-AC90-B5626EF921FC}"/>
+    <hyperlink ref="R11" r:id="rId31" xr:uid="{66DC45A7-19C4-43C4-B0F4-A0CF1A2B5EEE}"/>
+    <hyperlink ref="R12" r:id="rId32" xr:uid="{2AD2B2D0-3B7E-42F7-B36F-F6B46C1A0E4B}"/>
+    <hyperlink ref="R14" r:id="rId33" xr:uid="{4D12271B-3067-4329-9283-84BDE839D24B}"/>
+    <hyperlink ref="R15" r:id="rId34" xr:uid="{815D87A7-B006-44E8-8B3F-64751295D1C8}"/>
+    <hyperlink ref="R16" r:id="rId35" xr:uid="{28D8EDD4-CFFF-4D65-9BFB-F3EB46ECA3C0}"/>
+    <hyperlink ref="R17" r:id="rId36" xr:uid="{07E96372-EECD-4C26-952A-C8F7519E9A4F}"/>
+    <hyperlink ref="R18" r:id="rId37" xr:uid="{AB9DF2B8-EEF0-4540-BE1B-78645FC08951}"/>
+    <hyperlink ref="R19" r:id="rId38" xr:uid="{334C708D-7E73-49DB-9B57-6E949EAC6B0E}"/>
+    <hyperlink ref="R20" r:id="rId39" xr:uid="{B40D552C-26C4-4B1B-8EE5-9DD2E1FE13EB}"/>
+    <hyperlink ref="R21" r:id="rId40" xr:uid="{3898B3F5-F887-41D5-B9D4-8BB17D945471}"/>
+    <hyperlink ref="R22" r:id="rId41" xr:uid="{E3071F4B-2505-4B8E-85FC-6718AE18FFB2}"/>
+    <hyperlink ref="R23" r:id="rId42" xr:uid="{007F005E-113A-4CBA-A80F-AC5C89725DDB}"/>
+    <hyperlink ref="R24" r:id="rId43" xr:uid="{5AE6921E-5DB4-4990-98E3-09E97DBE1B0C}"/>
+    <hyperlink ref="R25" r:id="rId44" xr:uid="{C62D5665-0756-4BA3-8ECB-79CD61C05DF8}"/>
+    <hyperlink ref="R26" r:id="rId45" xr:uid="{CB9E0544-AF85-4C24-99F9-0AB31A08C073}"/>
+    <hyperlink ref="R27" r:id="rId46" xr:uid="{6D58E644-7010-426F-9808-699179DA889A}"/>
+    <hyperlink ref="R13" r:id="rId47" xr:uid="{3EB06776-CFD2-4794-AE14-21A96CEC3797}"/>
+    <hyperlink ref="R10" r:id="rId48" xr:uid="{039D62D7-4C35-4F2C-B7E0-8E137A3BE9E6}"/>
+    <hyperlink ref="R8" r:id="rId49" xr:uid="{61D9A1BE-78D1-4DEC-A11D-370F7705319D}"/>
+    <hyperlink ref="R7" r:id="rId50" xr:uid="{C513A10D-780E-4AB1-9B90-1F44751257A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F12AE-0508-4A69-AE2F-54E1EB01D434}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="34" t="str">
+        <f>IF(E2&gt;F2,"A","")</f>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="0">C3*D3</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="34" t="str">
+        <f t="shared" ref="G3:G25" si="1">IF(E3&gt;F3,"A","")</f>
+        <v/>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="H19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="H23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{FB83212E-6F6E-4C4D-890E-3FE117C37EC2}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{71341636-DC86-4E59-8E48-7D3CE9C4DBE4}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{83FA7015-2F8C-4DEE-AF18-64D9F73B2B29}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{185655FD-C6F3-4E60-802D-E033F2E3D939}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{EB0E2127-00E9-49DA-BCBA-254AA0D5404F}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{28DE7BCE-97E8-410C-AE63-5CB5E5242829}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{3D0D233A-97D0-4F83-8941-512E915ABAEA}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{DA0518FB-8FC5-4049-86F9-27921C5DF3E7}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{2A80CE65-033B-4281-84DC-2A921329BC32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pins & Parts.xlsx
+++ b/Pins & Parts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Cloud\Diplomarbeit\3D-Drone-Tracking-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11DDC6-9508-468A-8D1B-405134F81B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE3198C-295B-45DE-8077-58CD7DA4B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinouts" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="279">
   <si>
     <t>https://docs.arduino.cc/resources/pinouts/A000067-full-pinout.pdf</t>
   </si>
@@ -843,9 +843,6 @@
     <t>PD100</t>
   </si>
   <si>
-    <t>USB-A-A for PCB</t>
-  </si>
-  <si>
     <t>USB-C-C for ArmSom</t>
   </si>
   <si>
@@ -885,12 +882,6 @@
     <t>Insert M3x4</t>
   </si>
   <si>
-    <t>Bottom: 4; Walls; 4x4</t>
-  </si>
-  <si>
-    <t>Start-Button: 1; PCB: 3</t>
-  </si>
-  <si>
     <t>Start-Button: 1;</t>
   </si>
   <si>
@@ -909,9 +900,6 @@
     <t>ArmSom: 1</t>
   </si>
   <si>
-    <t>LH M3x4-6</t>
-  </si>
-  <si>
     <t>PCB: 3</t>
   </si>
   <si>
@@ -921,7 +909,25 @@
     <t>Insert M3x5,7</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Start-Button: 1; PCB: 3; Head: 2</t>
+  </si>
+  <si>
+    <t>Bottom: 4; Walls; 4x4; Top: 4</t>
+  </si>
+  <si>
+    <t>CS M2.5x12</t>
+  </si>
+  <si>
+    <t>Switches: 8</t>
+  </si>
+  <si>
+    <t>CS M3x16</t>
+  </si>
+  <si>
+    <t>LH M3x4-6 (CS)</t>
+  </si>
+  <si>
+    <t>USB-A-C for PCB</t>
   </si>
 </sst>
 </file>
@@ -1636,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7C43EA-BCB9-4805-8116-6F1FB52599C5}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3557,7 +3563,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="P21" s="18" t="str">
-        <f t="shared" ref="P21" si="5">IF(L21="","", IF((L21+M21)&lt;I21, "L", IF((L21+M21)&gt;=J21, IF(J21="","","H"), "")))</f>
+        <f>IF(L21="","", IF((L21+M21)&lt;I21, "L", IF((L21+M21)&gt;=J21, IF(J21="","","H"), "")))</f>
         <v/>
       </c>
       <c r="Q21" s="1" t="s">
@@ -3894,11 +3900,11 @@
         <v>500</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" ref="K27" si="6">IF(G27*H27&gt;0, G27*H27, "")</f>
+        <f>IF(G27*H27&gt;0, G27*H27, "")</f>
         <v>4.5199999999999997E-2</v>
       </c>
       <c r="L27" s="12">
-        <f t="shared" ref="L27" si="7">IF(H27*3&gt;0, H27*3, "")</f>
+        <f>IF(H27*3&gt;0, H27*3, "")</f>
         <v>12</v>
       </c>
       <c r="M27" s="12">
@@ -3910,11 +3916,11 @@
         <v>100</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" ref="O27" si="8">IF(L27="","",IF(G27="","",IF((L27+M27)*G27&gt;0,(L27+M27)*G27,"")))</f>
+        <f>IF(L27="","",IF(G27="","",IF((L27+M27)*G27&gt;0,(L27+M27)*G27,"")))</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="P27" s="18" t="str">
-        <f t="shared" ref="P27" si="9">IF(L27="","", IF((L27+M27)&lt;I27, "L", IF((L27+M27)&gt;=J27, IF(J27="","","H"), "")))</f>
+        <f>IF(L27="","", IF((L27+M27)&lt;I27, "L", IF((L27+M27)&gt;=J27, IF(J27="","","H"), "")))</f>
         <v/>
       </c>
       <c r="Q27" s="1" t="s">
@@ -4066,10 +4072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7F12AE-0508-4A69-AE2F-54E1EB01D434}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4156,14 +4162,14 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E27" si="0">C3*D3</f>
         <v>3</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" s="34" t="str">
-        <f t="shared" ref="G3:G25" si="1">IF(E3&gt;F3,"A","")</f>
+        <f t="shared" ref="G3:G27" si="1">IF(E3&gt;F3,"A","")</f>
         <v/>
       </c>
       <c r="H3" s="1" t="s">
@@ -4253,11 +4259,11 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v/>
       </c>
       <c r="H6" s="1" t="s">
         <v>248</v>
@@ -4265,7 +4271,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4277,14 +4283,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
       <c r="G7" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4296,14 +4305,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
       <c r="G8" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4315,14 +4327,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
       <c r="G9" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>252</v>
+      <c r="B10" t="s">
+        <v>251</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4335,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
         <v>259</v>
-      </c>
-      <c r="B11" t="s">
-        <v>260</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4369,10 +4384,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4393,7 +4408,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4437,7 +4452,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -4459,7 +4474,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -4481,7 +4496,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4503,7 +4518,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4525,32 +4540,32 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="G19" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v/>
       </c>
       <c r="H19" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4570,12 +4585,12 @@
         <v/>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4595,12 +4610,12 @@
         <v/>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4620,85 +4635,126 @@
         <v/>
       </c>
       <c r="H22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>272</v>
+      <c r="B23" t="s">
+        <v>274</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G23" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>A</v>
+        <v/>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>275</v>
+      <c r="B24" t="s">
+        <v>277</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>276</v>
+        <v>45</v>
+      </c>
+      <c r="G24" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>263</v>
+      <c r="B25" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="H25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F26">
         <v>100</v>
       </c>
-      <c r="G25" s="34" t="str">
+      <c r="G26" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
+      <c r="H26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="F27">
+        <v>140</v>
+      </c>
+      <c r="G27" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
